--- a/src/Datafile/excel.xlsx
+++ b/src/Datafile/excel.xlsx
@@ -55,22 +55,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:H5"/>
+  <dimension ref="F1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="0"/>
-    </row>
+    <row r="1"/>
     <row r="4">
-      <c r="H4" t="n" s="0">
-        <v>7.0</v>
+      <c r="F4" t="n" s="0">
+        <v>15.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
